--- a/data/trans_orig/Q46-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/Q46-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>79.59674861874518</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>82.00944176535855</v>
+        <v>82.00944176535856</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>63.88068514831699</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>76.45785449150102</v>
+        <v>76.39615681432772</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>78.74326693690901</v>
+        <v>78.70323169616941</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>77.72131487615697</v>
+        <v>77.84321073533781</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80.60143199378241</v>
+        <v>80.27885931220696</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>62.45188416185277</v>
+        <v>62.60568540158974</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>65.83839277649319</v>
+        <v>65.91890440145417</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>64.87721200706316</v>
+        <v>64.88912578999188</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>66.58745757046027</v>
+        <v>66.57444348665682</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>69.84917357550343</v>
+        <v>69.90432180377353</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>72.73499131793008</v>
+        <v>72.68102543427284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>71.69787362837859</v>
+        <v>71.69304973920431</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>73.8450404613713</v>
+        <v>73.93546258946755</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>79.40445213974409</v>
+        <v>79.51108218716509</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>81.86519157666383</v>
+        <v>81.86646822695717</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81.8154317506327</v>
+        <v>81.68202293185081</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>83.7780072251666</v>
+        <v>83.62089813115783</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>65.25234680796171</v>
+        <v>65.30270645250562</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>69.04276069892923</v>
+        <v>69.2549938793788</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>68.07634042740216</v>
+        <v>68.0038641002447</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>69.30997670001234</v>
+        <v>69.28038342085576</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>72.23531056737839</v>
+        <v>72.22595732661571</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>75.151595937354</v>
+        <v>75.31716212596849</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>74.60635662996208</v>
+        <v>74.53342778232071</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>76.2095249277903</v>
+        <v>76.19742823494387</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>75.48546830022829</v>
+        <v>75.47746187609565</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>76.49756531559835</v>
+        <v>76.68716427244223</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>76.65023753099082</v>
+        <v>76.69944943235934</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>79.56336662850472</v>
+        <v>79.59700280874932</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>64.88386817501568</v>
+        <v>64.87968888210796</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>66.85995192915306</v>
+        <v>67.03971912367561</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>67.0958467201059</v>
+        <v>67.02644979945823</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>66.97952485824463</v>
+        <v>67.05930643606435</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>70.37024133815751</v>
+        <v>70.27870558111594</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>72.08026079474138</v>
+        <v>71.95888006053626</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72.02577143002632</v>
+        <v>72.12103155479758</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>73.58810912605279</v>
+        <v>73.6384238587104</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>77.75042175090552</v>
+        <v>77.62773985660795</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>79.26349172505775</v>
+        <v>79.35148043472358</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>79.09088181928892</v>
+        <v>79.21063262974066</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>82.7839909838594</v>
+        <v>82.72604743511364</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>66.95891987246054</v>
+        <v>66.99446926082027</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>69.29317123537186</v>
+        <v>69.27036279217602</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>69.64074420060349</v>
+        <v>69.4873353188889</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>68.80047422565715</v>
+        <v>68.87227698828305</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>72.02411573181395</v>
+        <v>72.01268691448452</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>73.88000079298718</v>
+        <v>73.91995774442283</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>73.9651817918426</v>
+        <v>73.89017754014672</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>75.59368950226032</v>
+        <v>75.57245525699021</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>67.90393523999794</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>69.2735922435308</v>
+        <v>69.27359224353083</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>70.80893243780099</v>
@@ -965,7 +965,7 @@
         <v>74.0895054139019</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>75.50893043046736</v>
+        <v>75.50893043046737</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>75.38121474440234</v>
+        <v>75.27193096517671</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>79.27499283175663</v>
+        <v>79.31185429397071</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79.15262435881804</v>
+        <v>79.17368529363824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>80.84731198007682</v>
+        <v>80.87902705629503</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>64.33964468650802</v>
+        <v>64.29120816064298</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>66.7228302415345</v>
+        <v>66.70916760256574</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>66.54170726561148</v>
+        <v>66.7037904045593</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>68.02094793133199</v>
+        <v>67.99099458617597</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>69.91839537535674</v>
+        <v>69.82260759487296</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>73.23138375243299</v>
+        <v>73.08092276321753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>73.00448303376781</v>
+        <v>72.76582519365481</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>74.4677662971402</v>
+        <v>74.54324250351249</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>77.56159681772145</v>
+        <v>77.52362710589628</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>82.07253041667624</v>
+        <v>82.02836430037502</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82.02726020291348</v>
+        <v>81.95034837331804</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>84.15401310362287</v>
+        <v>84.41327102953748</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>66.79716898793865</v>
+        <v>66.79886523481822</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>69.59111864228529</v>
+        <v>69.5248687610255</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>69.43671130301048</v>
+        <v>69.68890923440416</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>70.49198204636467</v>
+        <v>70.52995863443813</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>71.75308048663975</v>
+        <v>71.74940781301085</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>75.39018439868167</v>
+        <v>75.41535891695909</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75.20076753952711</v>
+        <v>75.21562247727219</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>76.78566648521537</v>
+        <v>76.77084479473568</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>78.10992710052489</v>
+        <v>78.11157548538696</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>79.73810911851851</v>
+        <v>79.76270117019078</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>78.56031516875815</v>
+        <v>78.59789817929875</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78.99789833569233</v>
+        <v>78.9987023318695</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>64.64958122543739</v>
+        <v>64.60072815820497</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>66.86436247393787</v>
+        <v>66.87690483409787</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>66.22862490025545</v>
+        <v>66.40579661021829</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>65.75172186834192</v>
+        <v>65.68246310368605</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>71.43170505619123</v>
+        <v>71.52760416231294</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>73.57379123174644</v>
+        <v>73.47931485336866</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>72.69716644702278</v>
+        <v>72.61902972450432</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>72.07939406626895</v>
+        <v>72.12930315758048</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>80.42904667282062</v>
+        <v>80.34145470491858</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>82.4305359179982</v>
+        <v>82.59219894888307</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>81.84307934581889</v>
+        <v>81.90872899205927</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>82.48887355265407</v>
+        <v>82.55218360578709</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>66.85036098225879</v>
+        <v>67.13821008470255</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>69.39874587857599</v>
+        <v>69.5398302488626</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>69.00750605394482</v>
+        <v>69.13558402767194</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>68.333498321378</v>
+        <v>68.26758859816181</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>73.3192248582202</v>
+        <v>73.34300488386563</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>75.72505183918648</v>
+        <v>75.68942645399349</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>74.96158564383215</v>
+        <v>75.08467233647033</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>74.4845965811917</v>
+        <v>74.56234247746657</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>78.42810229289047</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>80.89777739569296</v>
+        <v>80.89777739569291</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>67.41971486860888</v>
@@ -1225,7 +1225,7 @@
         <v>70.36656160674572</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>77.8443270255615</v>
+        <v>77.84432702556151</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>72.61827896226443</v>
@@ -1237,7 +1237,7 @@
         <v>74.31161988455369</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>79.2880784822059</v>
+        <v>79.28807848220589</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>76.10955840721273</v>
+        <v>76.14463779916284</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>78.86860094430548</v>
+        <v>78.8966735608002</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>76.81707672064172</v>
+        <v>76.83834483242207</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79.46672613489996</v>
+        <v>79.34302637486155</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>65.62468849073254</v>
+        <v>65.74490469671449</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>64.19836440497434</v>
+        <v>64.2710261733102</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>68.90123407441025</v>
+        <v>68.798606181945</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>71.46721277013945</v>
+        <v>71.86770747622745</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>71.14695721159862</v>
+        <v>71.28119006920473</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>71.74749360648256</v>
+        <v>71.81806563953542</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>73.06115760150558</v>
+        <v>73.06949962262158</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>75.98181665627666</v>
+        <v>75.78388870122542</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>79.56645314679943</v>
+        <v>79.73391535332884</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>82.75470024094541</v>
+        <v>82.57660234950239</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>80.19579012320652</v>
+        <v>80.27296847614812</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>82.40281607161442</v>
+        <v>82.62756720801643</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>69.55920142030347</v>
+        <v>69.38027108262084</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>67.77259787815575</v>
+        <v>67.81327511730244</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>71.87147970983747</v>
+        <v>71.87815486364362</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>89.95067230976636</v>
+        <v>93.35371750656402</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>74.05338547479514</v>
+        <v>74.14022257807434</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>74.75326007744859</v>
+        <v>74.73522044601074</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>75.57238581447859</v>
+        <v>75.43254031753823</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>85.41497659321304</v>
+        <v>86.14387399994895</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>80.00960115676949</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>80.25423558954571</v>
+        <v>80.25423558954573</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>65.03222228489565</v>
@@ -1361,7 +1361,7 @@
         <v>67.0546879283888</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>67.29937730459297</v>
+        <v>67.29937730459295</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>71.55714092556556</v>
@@ -1373,7 +1373,7 @@
         <v>73.45802811372637</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>73.89284577036221</v>
+        <v>73.89284577036223</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>77.01692813810747</v>
+        <v>77.08987490269205</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>81.37470425959809</v>
+        <v>81.29800939624195</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>78.33478265346564</v>
+        <v>78.42156163543771</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>78.81009885624272</v>
+        <v>78.92082267034576</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>63.78697338648356</v>
+        <v>63.78805622177658</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>68.13399538639618</v>
+        <v>68.14651074318502</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>65.5531130148659</v>
+        <v>65.62805493377169</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>66.09709359877138</v>
+        <v>66.20050532639434</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>70.52526314477774</v>
+        <v>70.54019763155303</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74.76553994838351</v>
+        <v>74.99055339699824</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>72.26475314019527</v>
+        <v>72.25625442170642</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>72.80980611856317</v>
+        <v>72.79206461450495</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>79.66316257781415</v>
+        <v>79.72342991766449</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>85.20814874805947</v>
+        <v>84.94204310305938</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>81.58270521433133</v>
+        <v>81.67652429680847</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>81.84647748245401</v>
+        <v>81.70614918108367</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>66.33751305323703</v>
+        <v>66.31430673929053</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>70.97801271287423</v>
+        <v>71.16809121771438</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>68.69306883024694</v>
+        <v>68.61021500887819</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>68.5870927123769</v>
+        <v>68.67774978290615</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>72.71839770959632</v>
+        <v>72.61616856001294</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>77.49501890603732</v>
+        <v>77.69233950846684</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>74.81710524012378</v>
+        <v>74.61120660738131</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>75.05944835227039</v>
+        <v>75.01460398640992</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>77.65535075646629</v>
+        <v>77.5233544608587</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>78.83122029443696</v>
+        <v>79.06063600876575</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>80.14279672037109</v>
+        <v>80.18264017777719</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>78.99781338211938</v>
+        <v>78.91138570748247</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>65.18917356629159</v>
+        <v>65.10701483802995</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>67.75645229212715</v>
+        <v>67.80636113902868</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>65.03703828348043</v>
+        <v>65.17790436813222</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>66.38010018064477</v>
+        <v>66.60439100957483</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>71.4836826842955</v>
+        <v>71.44470518116101</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>73.44813580182533</v>
+        <v>73.47250450937423</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>72.71186800078159</v>
+        <v>72.60979870998841</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>72.6705752277272</v>
+        <v>72.69580725484988</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>79.44151112808632</v>
+        <v>79.34078849597975</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>80.85330462745377</v>
+        <v>80.8712277621802</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>82.29117718092947</v>
+        <v>82.37845033075418</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>81.52315349608885</v>
+        <v>81.50543462554107</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>67.19641493236217</v>
+        <v>67.12963085816453</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>69.76450138651055</v>
+        <v>69.87659724175829</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>67.28633123094552</v>
+        <v>67.29057559093162</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>68.43137093415706</v>
+        <v>68.37789035438617</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>72.97733894313792</v>
+        <v>72.93065960973931</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>75.0323580798437</v>
+        <v>75.02551851899658</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>74.44981978520725</v>
+        <v>74.39805947101026</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>74.49736603519605</v>
+        <v>74.57626522168604</v>
       </c>
     </row>
     <row r="25">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>77.78840421987145</v>
+        <v>77.78978680615482</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>77.87896214165647</v>
+        <v>77.89718853791075</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79.41206309477494</v>
+        <v>79.37980395756003</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>77.36968540025988</v>
+        <v>77.37996356879137</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>63.98750565694176</v>
+        <v>64.10153852900174</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>66.37199330440203</v>
+        <v>66.54515506886477</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>67.45153369821415</v>
+        <v>67.44909013318943</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>67.84959195456572</v>
+        <v>67.80392575478153</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>70.91976637059888</v>
+        <v>70.961721952061</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>72.16286516955208</v>
+        <v>72.15750924840239</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>73.43746206527103</v>
+        <v>73.55228329898883</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>72.7376616182479</v>
+        <v>72.72932811308708</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>79.48860523514675</v>
+        <v>79.55333377717263</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>79.58708176746667</v>
+        <v>79.55962017297256</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>81.51757957009775</v>
+        <v>81.47457069714362</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>79.31769937184811</v>
+        <v>79.27779722281502</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>65.78946441303218</v>
+        <v>65.82778526621566</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>68.32226049296878</v>
+        <v>68.42527275627796</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>69.27632925940395</v>
+        <v>69.31443137335664</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>69.3963955455927</v>
+        <v>69.38199639676418</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>72.2764521826337</v>
+        <v>72.39966152942932</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>73.57003124450083</v>
+        <v>73.61735195814303</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>74.98059081379681</v>
+        <v>75.00412962645896</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>74.03645353506478</v>
+        <v>74.01161987642605</v>
       </c>
     </row>
     <row r="28">
@@ -1757,7 +1757,7 @@
         <v>79.95613944621526</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>80.37328859528202</v>
+        <v>80.37328859528205</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>65.5227406736708</v>
@@ -1792,40 +1792,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>77.57112655957694</v>
+        <v>77.56815769755312</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>79.47201236170845</v>
+        <v>79.43473368996708</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>79.45392435379054</v>
+        <v>79.5058302764659</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>79.83551267180459</v>
+        <v>79.83776872875769</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>65.13308978391727</v>
+        <v>65.12768476324082</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>67.5434688471142</v>
+        <v>67.60772823155678</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>67.23598772861108</v>
+        <v>67.22441384004135</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>68.03268295909014</v>
+        <v>68.03415700334652</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>71.35705400340663</v>
+        <v>71.3476128708123</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>73.49272628647525</v>
+        <v>73.51263705694267</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>73.30418674640894</v>
+        <v>73.31896942458768</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>73.98550974754713</v>
+        <v>73.95999768872639</v>
       </c>
     </row>
     <row r="30">
@@ -1836,40 +1836,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>78.36863380534832</v>
+        <v>78.39353625924844</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>80.34125796768305</v>
+        <v>80.3190056698102</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>80.47354571661948</v>
+        <v>80.46268202940919</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>80.91760749249561</v>
+        <v>80.90614703976384</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>65.93496469423133</v>
+        <v>65.97110963585564</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>68.4549223829364</v>
+        <v>68.48633249981351</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>68.11390901922749</v>
+        <v>68.11574506848034</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>69.41437685271907</v>
+        <v>69.42060793214488</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>71.98769517139426</v>
+        <v>71.99903332504643</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>74.23045713693277</v>
+        <v>74.18566037626836</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>74.05274744059646</v>
+        <v>74.09872135895863</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>74.84797068390431</v>
+        <v>74.82669621139659</v>
       </c>
     </row>
     <row r="31">
